--- a/biology/Botanique/Parc_des_Impressionnistes/Parc_des_Impressionnistes.xlsx
+++ b/biology/Botanique/Parc_des_Impressionnistes/Parc_des_Impressionnistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Impressionnistes est un jardin public situé sur le territoire de la commune de Rueil-Malmaison (département des Hauts-de-Seine, France).
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé sur les berges de Seine, face à l’Ile des Impressionnistes, ce parc concrétise la fin de l’aménagement du nouveau quartier de Rueil-sur-Seine en 1996
-[1].
+.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout au long de ses 1,1 hectare, 250 variétés de vivaces et d’arbustes rares sont présentées. Les jardiniers se sont inspirés des couleurs de la palette des peintres impressionnistes pour offrir aux promeneurs des compositions florales qui se lisent comme des tableaux. Une pièce d’eau, agrémentée d’un petit kiosque et d’une grenouillère en bois naturel, s’inscrit dans la continuité de l’évocation du jardin de Claude Monet à Giverny. Une roseraie, un jardin blanc et un jardin de collections renforcent l’éclat et l’originalité de ce lieu.
 Accès par l'allée Jacques Prévert.
